--- a/Data_Temp/3.友愛擁抱/版1(xlsx)/20230426友善廁所名單.xlsx
+++ b/Data_Temp/3.友愛擁抱/版1(xlsx)/20230426友善廁所名單.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2023臺北程式設計節城市儀表板大黑客松\3.友愛擁抱\版1(xlsx)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C66F4D5D-4937-41F6-837F-4B440799F4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4545787-FE6F-43CE-A573-B0B2E53A1046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20230426友善廁所名單" sheetId="1" r:id="rId1"/>
@@ -52,9 +52,6 @@
     <t>延三夜市</t>
   </si>
   <si>
-    <t>延三海鮮炭烤</t>
-  </si>
-  <si>
     <t>臺北市大同區延平北路三段32之2號</t>
   </si>
   <si>
@@ -391,14 +388,18 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Hholiday(休假日)</t>
+    <t>延三海鮮炭烤</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Holiday(休假日)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1346,11 +1347,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1365,22 +1366,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" t="s">
         <v>96</v>
       </c>
-      <c r="C1" t="s">
-        <v>97</v>
-      </c>
       <c r="D1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" t="s">
         <v>113</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>114</v>
-      </c>
-      <c r="F1" t="s">
-        <v>115</v>
       </c>
       <c r="G1" t="s">
         <v>116</v>
@@ -1440,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -1463,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -1486,10 +1487,10 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" t="s">
         <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
       </c>
       <c r="E6" s="1">
         <v>0.75</v>
@@ -1509,10 +1510,10 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
         <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
       </c>
       <c r="E7" s="1">
         <v>0.75</v>
@@ -1521,7 +1522,7 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1532,10 +1533,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
         <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
       </c>
       <c r="E8" s="1">
         <v>0.4375</v>
@@ -1544,7 +1545,7 @@
         <v>0.875</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1552,13 +1553,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" t="s">
         <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
       </c>
       <c r="E9" s="1">
         <v>0.75</v>
@@ -1567,7 +1568,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1575,13 +1576,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10" s="1">
         <v>0.45833333333333331</v>
@@ -1598,13 +1599,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
       </c>
       <c r="E11" s="1">
         <v>0.70833333333333337</v>
@@ -1621,13 +1622,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -1644,13 +1645,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
         <v>26</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
       </c>
       <c r="E13" s="1">
         <v>0.5</v>
@@ -1667,13 +1668,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
         <v>29</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>30</v>
-      </c>
-      <c r="D14" t="s">
-        <v>31</v>
       </c>
       <c r="E14" s="1">
         <v>0.66666666666666663</v>
@@ -1690,13 +1691,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
         <v>32</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>33</v>
-      </c>
-      <c r="D15" t="s">
-        <v>34</v>
       </c>
       <c r="E15" s="1">
         <v>0.70833333333333337</v>
@@ -1713,13 +1714,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
         <v>35</v>
-      </c>
-      <c r="D16" t="s">
-        <v>36</v>
       </c>
       <c r="E16" s="1">
         <v>0.66666666666666663</v>
@@ -1736,13 +1737,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
         <v>37</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>38</v>
-      </c>
-      <c r="D17" t="s">
-        <v>39</v>
       </c>
       <c r="E17" s="1">
         <v>0.375</v>
@@ -1759,13 +1760,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E18" s="1">
         <v>0.45833333333333331</v>
@@ -1782,13 +1783,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
         <v>41</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>42</v>
-      </c>
-      <c r="D19" t="s">
-        <v>43</v>
       </c>
       <c r="E19" s="1">
         <v>0.70833333333333337</v>
@@ -1797,7 +1798,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="G19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1805,13 +1806,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E20" s="1">
         <v>0.70833333333333337</v>
@@ -1828,13 +1829,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
         <v>46</v>
-      </c>
-      <c r="D21" t="s">
-        <v>47</v>
       </c>
       <c r="E21" s="1">
         <v>0.6875</v>
@@ -1851,13 +1852,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" t="s">
         <v>48</v>
-      </c>
-      <c r="D22" t="s">
-        <v>49</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
@@ -1874,13 +1875,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" t="s">
         <v>50</v>
-      </c>
-      <c r="C23" t="s">
-        <v>104</v>
-      </c>
-      <c r="D23" t="s">
-        <v>51</v>
       </c>
       <c r="E23" s="1">
         <v>0.29166666666666669</v>
@@ -1889,7 +1890,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="G23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1897,13 +1898,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
         <v>52</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>53</v>
-      </c>
-      <c r="D24" t="s">
-        <v>54</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>
@@ -1920,13 +1921,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" t="s">
         <v>55</v>
-      </c>
-      <c r="D25" t="s">
-        <v>56</v>
       </c>
       <c r="E25" s="1">
         <v>0.5</v>
@@ -1943,13 +1944,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" t="s">
         <v>57</v>
-      </c>
-      <c r="D26" t="s">
-        <v>58</v>
       </c>
       <c r="E26" s="1">
         <v>0.47916666666666669</v>
@@ -1958,7 +1959,7 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="G26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1966,13 +1967,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
@@ -1989,13 +1990,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E28" s="1">
         <v>0.375</v>
@@ -2012,13 +2013,13 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" t="s">
         <v>62</v>
-      </c>
-      <c r="C29" t="s">
-        <v>107</v>
-      </c>
-      <c r="D29" t="s">
-        <v>63</v>
       </c>
       <c r="E29" s="1">
         <v>0.16666666666666666</v>
@@ -2027,7 +2028,7 @@
         <v>0.5</v>
       </c>
       <c r="G29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -2035,13 +2036,13 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E30" s="1">
         <v>0.33333333333333331</v>
@@ -2058,13 +2059,13 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" t="s">
         <v>65</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>66</v>
-      </c>
-      <c r="D31" t="s">
-        <v>67</v>
       </c>
       <c r="E31" s="1">
         <v>0.70833333333333337</v>
@@ -2081,13 +2082,13 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" t="s">
         <v>68</v>
-      </c>
-      <c r="D32" t="s">
-        <v>69</v>
       </c>
       <c r="E32" s="1">
         <v>0.29166666666666669</v>
@@ -2104,13 +2105,13 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" t="s">
         <v>70</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>71</v>
-      </c>
-      <c r="D33" t="s">
-        <v>72</v>
       </c>
       <c r="E33" s="1">
         <v>0</v>
@@ -2127,13 +2128,13 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" t="s">
         <v>73</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>74</v>
-      </c>
-      <c r="D34" t="s">
-        <v>75</v>
       </c>
       <c r="E34" s="1">
         <v>0.58333333333333337</v>
@@ -2150,13 +2151,13 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" t="s">
         <v>76</v>
-      </c>
-      <c r="D35" t="s">
-        <v>77</v>
       </c>
       <c r="E35" s="1">
         <v>0.45833333333333331</v>
@@ -2173,13 +2174,13 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E36" s="1">
         <v>0</v>
@@ -2196,13 +2197,13 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E37" s="1">
         <v>0</v>
@@ -2219,13 +2220,13 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E38" s="1">
         <v>0</v>
@@ -2242,13 +2243,13 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E39" s="1">
         <v>0</v>
@@ -2265,13 +2266,13 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="s">
         <v>82</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>83</v>
-      </c>
-      <c r="D40" t="s">
-        <v>84</v>
       </c>
       <c r="E40" s="1">
         <v>0.29166666666666669</v>
@@ -2280,7 +2281,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="G40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -2288,13 +2289,13 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" t="s">
         <v>85</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>86</v>
-      </c>
-      <c r="D41" t="s">
-        <v>87</v>
       </c>
       <c r="E41" s="1">
         <v>0.47916666666666669</v>
@@ -2311,13 +2312,13 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" t="s">
         <v>88</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>89</v>
-      </c>
-      <c r="D42" t="s">
-        <v>90</v>
       </c>
       <c r="E42" s="1">
         <v>0</v>
@@ -2334,13 +2335,13 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" t="s">
         <v>91</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>92</v>
-      </c>
-      <c r="D43" t="s">
-        <v>93</v>
       </c>
       <c r="E43" s="1">
         <v>0</v>
